--- a/es/es-affix.xlsx
+++ b/es/es-affix.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>English</t>
   </si>
@@ -323,6 +323,42 @@
   </si>
   <si>
     <t>conferir</t>
+  </si>
+  <si>
+    <t>-gest</t>
+  </si>
+  <si>
+    <t>-gerir</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>sugerir</t>
+  </si>
+  <si>
+    <t>-cur</t>
+  </si>
+  <si>
+    <t>-currir</t>
+  </si>
+  <si>
+    <t>occur</t>
+  </si>
+  <si>
+    <t>ocurrir</t>
+  </si>
+  <si>
+    <t>-cover</t>
+  </si>
+  <si>
+    <t>-cubrir</t>
+  </si>
+  <si>
+    <t>discover</t>
+  </si>
+  <si>
+    <t>discubrir</t>
   </si>
 </sst>
 </file>
@@ -938,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,13 +984,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1517,8 +1547,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3846153846154" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.23076923076923" style="6"/>
+    <col min="1" max="1" width="12.3846153846154" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.23076923076923" style="4"/>
     <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
@@ -1539,8 +1569,8 @@
       </c>
     </row>
     <row r="2" spans="3:4">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1551,10 +1581,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1601,61 +1631,61 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1663,181 +1693,181 @@
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1845,100 +1875,145 @@
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A18"/>
-    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A19:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/es/es-affix.xlsx
+++ b/es/es-affix.xlsx
@@ -29,14 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
-  <si>
-    <t>English</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>Spanish</t>
   </si>
   <si>
+    <t>French</t>
+  </si>
+  <si>
     <t>Speech</t>
   </si>
   <si>
@@ -46,319 +46,307 @@
     <t>-al</t>
   </si>
   <si>
-    <t>-ado o -ico</t>
-  </si>
-  <si>
-    <t>natural</t>
+    <t>-el</t>
   </si>
   <si>
     <t>naturel</t>
   </si>
   <si>
-    <t>-ous</t>
-  </si>
-  <si>
     <t>-oso o -osa</t>
   </si>
   <si>
-    <t>dangerous</t>
+    <t>-eux</t>
   </si>
   <si>
     <t>dangereux</t>
   </si>
   <si>
-    <t>-ose</t>
-  </si>
-  <si>
     <t>-oso/osa</t>
   </si>
   <si>
-    <t>verbose</t>
-  </si>
-  <si>
     <t>verbeux</t>
   </si>
   <si>
-    <t>-ic</t>
-  </si>
-  <si>
     <t>-ico/a</t>
   </si>
   <si>
-    <t>historic</t>
+    <t>-ique</t>
   </si>
   <si>
     <t>historico</t>
   </si>
   <si>
-    <t>-id</t>
+    <t>historique</t>
   </si>
   <si>
     <t>-ido</t>
   </si>
   <si>
-    <t>fluid</t>
+    <t>-ide</t>
   </si>
   <si>
     <t>fluido</t>
   </si>
   <si>
+    <t>fluide</t>
+  </si>
+  <si>
     <t>noun</t>
   </si>
   <si>
+    <t>-idad</t>
+  </si>
+  <si>
     <t>-ity</t>
   </si>
   <si>
-    <t>-idad</t>
+    <t>possibilidad</t>
   </si>
   <si>
     <t>possibility</t>
   </si>
   <si>
-    <t>possibilidad</t>
+    <t>-ción</t>
   </si>
   <si>
     <t>-tion</t>
   </si>
   <si>
-    <t>-ción</t>
+    <t>atención</t>
   </si>
   <si>
     <t>attention</t>
   </si>
   <si>
-    <t>atención</t>
+    <t>-sión</t>
   </si>
   <si>
     <t>-sion</t>
   </si>
   <si>
-    <t>-sión</t>
+    <t>decisión</t>
   </si>
   <si>
     <t>decision</t>
   </si>
   <si>
-    <t>decisión</t>
-  </si>
-  <si>
-    <t>-mony</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -monía</t>
   </si>
   <si>
-    <t>harmony</t>
+    <t>-monie</t>
   </si>
   <si>
     <t>harmonia</t>
   </si>
   <si>
-    <t>-ology</t>
+    <t>harmonie</t>
   </si>
   <si>
     <t>-logía</t>
   </si>
   <si>
-    <t>biology</t>
+    <t>-ologie</t>
   </si>
   <si>
     <t>biología</t>
   </si>
   <si>
-    <t>-graphy</t>
+    <t>biologie</t>
   </si>
   <si>
     <t>-grafía</t>
   </si>
   <si>
-    <t>geography</t>
+    <t>-graphie</t>
   </si>
   <si>
     <t>geografía</t>
   </si>
   <si>
-    <t>-metry</t>
+    <t>géographie</t>
   </si>
   <si>
     <t>-metría</t>
   </si>
   <si>
-    <t>geometry</t>
+    <t>-métrie</t>
   </si>
   <si>
     <t>geometría</t>
   </si>
   <si>
-    <t>-ary</t>
+    <t>géométrie</t>
   </si>
   <si>
     <t>-ario</t>
   </si>
   <si>
-    <t>dictionary</t>
+    <t>-aire</t>
   </si>
   <si>
     <t>dictionario</t>
   </si>
   <si>
-    <t>-ory</t>
+    <t>dictionaire</t>
   </si>
   <si>
     <t>-oria</t>
   </si>
   <si>
-    <t>history</t>
+    <t>-oire</t>
   </si>
   <si>
     <t>historia</t>
   </si>
   <si>
-    <t>-ist</t>
+    <t>histoire</t>
   </si>
   <si>
     <t>-ista</t>
   </si>
   <si>
-    <t>artist</t>
+    <t>-iste</t>
   </si>
   <si>
     <t>artista</t>
   </si>
   <si>
-    <t>-ism</t>
+    <t>artiste</t>
   </si>
   <si>
     <t>-ismo</t>
   </si>
   <si>
-    <t>capitalism</t>
+    <t>-isme</t>
   </si>
   <si>
     <t>capitalismo</t>
   </si>
   <si>
-    <t>-junction</t>
+    <t>capitalisme</t>
   </si>
   <si>
     <t>-junción</t>
   </si>
   <si>
-    <t>conjunction</t>
+    <t>-jonction</t>
   </si>
   <si>
     <t>conjunción</t>
   </si>
   <si>
+    <t>conjonction</t>
+  </si>
+  <si>
     <t>verb</t>
   </si>
   <si>
-    <t>-ify</t>
-  </si>
-  <si>
     <t>-ificar</t>
   </si>
   <si>
-    <t>simplify</t>
+    <t>-ifier</t>
   </si>
   <si>
     <t>simplificar</t>
   </si>
   <si>
-    <t>-ize</t>
+    <t>simplifier</t>
   </si>
   <si>
     <t>-izar</t>
   </si>
   <si>
-    <t>organize</t>
+    <t>-iser</t>
   </si>
   <si>
     <t>organizar</t>
   </si>
   <si>
-    <t>-ject</t>
+    <t>organiser</t>
   </si>
   <si>
     <t>-yectar</t>
   </si>
   <si>
-    <t>project</t>
+    <t>-jeter</t>
   </si>
   <si>
     <t>proyectar</t>
   </si>
   <si>
-    <t>-pend</t>
+    <t>projeter</t>
+  </si>
+  <si>
+    <t>-ducir</t>
+  </si>
+  <si>
+    <t>-duire</t>
+  </si>
+  <si>
+    <t>introducir</t>
+  </si>
+  <si>
+    <t>introduire</t>
   </si>
   <si>
     <t>-pender</t>
   </si>
   <si>
-    <t>depend</t>
+    <t>-pendre</t>
   </si>
   <si>
     <t>depender</t>
   </si>
   <si>
-    <t>-vent</t>
+    <t>dépendre</t>
   </si>
   <si>
     <t>-venir</t>
   </si>
   <si>
-    <t>prevent</t>
-  </si>
-  <si>
     <t>prévenir</t>
   </si>
   <si>
-    <t>-fer</t>
-  </si>
-  <si>
     <t>-ferir</t>
   </si>
   <si>
-    <t>confer</t>
+    <t>-férer</t>
   </si>
   <si>
     <t>conferir</t>
   </si>
   <si>
-    <t>-gest</t>
+    <t>conférer</t>
   </si>
   <si>
     <t>-gerir</t>
   </si>
   <si>
-    <t>suggest</t>
+    <t>-gérer</t>
   </si>
   <si>
     <t>sugerir</t>
   </si>
   <si>
-    <t>-cur</t>
+    <t>suggérer</t>
   </si>
   <si>
     <t>-currir</t>
   </si>
   <si>
-    <t>occur</t>
-  </si>
-  <si>
     <t>ocurrir</t>
   </si>
   <si>
-    <t>-cover</t>
-  </si>
-  <si>
     <t>-cubrir</t>
   </si>
   <si>
-    <t>discover</t>
+    <t>-couvrir</t>
   </si>
   <si>
     <t>discubrir</t>
+  </si>
+  <si>
+    <t>découvrir</t>
   </si>
 </sst>
 </file>
@@ -974,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,9 +970,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1542,15 +1527,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3846153846154" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.23076923076923" style="4"/>
-    <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.23076923076923" style="3"/>
+    <col min="2" max="2" width="12.3846153846154" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1569,8 +1554,8 @@
       </c>
     </row>
     <row r="2" spans="3:4">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1581,18 +1566,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
-    <col min="3" max="3" width="13.7692307692308" customWidth="1"/>
-    <col min="4" max="4" width="13.2307692307692" customWidth="1"/>
-    <col min="5" max="5" width="13.9230769230769" customWidth="1"/>
+    <col min="2" max="2" width="13.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="9.61538461538461" customWidth="1"/>
+    <col min="4" max="4" width="13.9230769230769" customWidth="1"/>
+    <col min="5" max="5" width="13.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1619,401 +1604,409 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>101</v>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>105</v>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>109</v>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A18"/>
     <mergeCell ref="A19:A27"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/es/es-affix.xlsx
+++ b/es/es-affix.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="2"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
     <sheet name="prefix-shift" sheetId="2" r:id="rId2"/>
-    <sheet name="suffix" sheetId="4" r:id="rId3"/>
+    <sheet name="suffix-n" sheetId="5" r:id="rId3"/>
+    <sheet name="suffix-v" sheetId="6" r:id="rId4"/>
+    <sheet name="suffix-adj" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>Spanish</t>
   </si>
@@ -37,10 +39,280 @@
     <t>French</t>
   </si>
   <si>
-    <t>Speech</t>
-  </si>
-  <si>
-    <t>adjective</t>
+    <t>-idad</t>
+  </si>
+  <si>
+    <t>-ity</t>
+  </si>
+  <si>
+    <t>possibilidad</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>-ción</t>
+  </si>
+  <si>
+    <t>-tion</t>
+  </si>
+  <si>
+    <t>atención</t>
+  </si>
+  <si>
+    <t>attention</t>
+  </si>
+  <si>
+    <t>-sión</t>
+  </si>
+  <si>
+    <t>-sion</t>
+  </si>
+  <si>
+    <t>decisión</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -monía</t>
+  </si>
+  <si>
+    <t>-monie</t>
+  </si>
+  <si>
+    <t>harmonia</t>
+  </si>
+  <si>
+    <t>harmonie</t>
+  </si>
+  <si>
+    <t>-logía</t>
+  </si>
+  <si>
+    <t>-ologie</t>
+  </si>
+  <si>
+    <t>biología</t>
+  </si>
+  <si>
+    <t>biologie</t>
+  </si>
+  <si>
+    <t>-grafía</t>
+  </si>
+  <si>
+    <t>-graphie</t>
+  </si>
+  <si>
+    <t>geografía</t>
+  </si>
+  <si>
+    <t>géographie</t>
+  </si>
+  <si>
+    <t>-metría</t>
+  </si>
+  <si>
+    <t>-métrie</t>
+  </si>
+  <si>
+    <t>geometría</t>
+  </si>
+  <si>
+    <t>géométrie</t>
+  </si>
+  <si>
+    <t>-ario</t>
+  </si>
+  <si>
+    <t>-aire</t>
+  </si>
+  <si>
+    <t>dictionario</t>
+  </si>
+  <si>
+    <t>dictionaire</t>
+  </si>
+  <si>
+    <t>-oria</t>
+  </si>
+  <si>
+    <t>-oire</t>
+  </si>
+  <si>
+    <t>historia</t>
+  </si>
+  <si>
+    <t>histoire</t>
+  </si>
+  <si>
+    <t>-ista</t>
+  </si>
+  <si>
+    <t>-iste</t>
+  </si>
+  <si>
+    <t>artista</t>
+  </si>
+  <si>
+    <t>artiste</t>
+  </si>
+  <si>
+    <t>-ismo</t>
+  </si>
+  <si>
+    <t>-isme</t>
+  </si>
+  <si>
+    <t>capitalismo</t>
+  </si>
+  <si>
+    <t>capitalisme</t>
+  </si>
+  <si>
+    <t>-junción</t>
+  </si>
+  <si>
+    <t>-jonction</t>
+  </si>
+  <si>
+    <t>conjunción</t>
+  </si>
+  <si>
+    <t>conjonction</t>
+  </si>
+  <si>
+    <t>-ificar</t>
+  </si>
+  <si>
+    <t>-ifier</t>
+  </si>
+  <si>
+    <t>simplificar</t>
+  </si>
+  <si>
+    <t>simplifier</t>
+  </si>
+  <si>
+    <t>-izar</t>
+  </si>
+  <si>
+    <t>-iser</t>
+  </si>
+  <si>
+    <t>organizar</t>
+  </si>
+  <si>
+    <t>organiser</t>
+  </si>
+  <si>
+    <t>-yectar</t>
+  </si>
+  <si>
+    <t>-jeter</t>
+  </si>
+  <si>
+    <t>proyectar</t>
+  </si>
+  <si>
+    <t>projeter</t>
+  </si>
+  <si>
+    <t>-ducir</t>
+  </si>
+  <si>
+    <t>-duire</t>
+  </si>
+  <si>
+    <t>introducir</t>
+  </si>
+  <si>
+    <t>introduire</t>
+  </si>
+  <si>
+    <t>-pender</t>
+  </si>
+  <si>
+    <t>-pendre</t>
+  </si>
+  <si>
+    <t>depender</t>
+  </si>
+  <si>
+    <t>dépendre</t>
+  </si>
+  <si>
+    <t>-ferir</t>
+  </si>
+  <si>
+    <t>-férer</t>
+  </si>
+  <si>
+    <t>conferir</t>
+  </si>
+  <si>
+    <t>conférer</t>
+  </si>
+  <si>
+    <t>-gerir</t>
+  </si>
+  <si>
+    <t>-gérer</t>
+  </si>
+  <si>
+    <t>sugerir</t>
+  </si>
+  <si>
+    <t>suggérer</t>
+  </si>
+  <si>
+    <t>-rigir</t>
+  </si>
+  <si>
+    <t>-riger</t>
+  </si>
+  <si>
+    <t>dirigir</t>
+  </si>
+  <si>
+    <t>diriger</t>
+  </si>
+  <si>
+    <t>-tinguir</t>
+  </si>
+  <si>
+    <t>-tinguer</t>
+  </si>
+  <si>
+    <t>distinguir</t>
+  </si>
+  <si>
+    <t>distinguer</t>
+  </si>
+  <si>
+    <t>-cubrir</t>
+  </si>
+  <si>
+    <t>-couvrir</t>
+  </si>
+  <si>
+    <t>discubrir</t>
+  </si>
+  <si>
+    <t>découvrir</t>
+  </si>
+  <si>
+    <t>-cibir</t>
+  </si>
+  <si>
+    <t>-cevoir</t>
+  </si>
+  <si>
+    <t>recibir</t>
+  </si>
+  <si>
+    <t>recevoir</t>
   </si>
   <si>
     <t>-al</t>
@@ -52,22 +324,19 @@
     <t>naturel</t>
   </si>
   <si>
-    <t>-oso o -osa</t>
+    <t>-oso</t>
   </si>
   <si>
     <t>-eux</t>
   </si>
   <si>
-    <t>dangereux</t>
-  </si>
-  <si>
-    <t>-oso/osa</t>
+    <t>verboso</t>
   </si>
   <si>
     <t>verbeux</t>
   </si>
   <si>
-    <t>-ico/a</t>
+    <t>-ico</t>
   </si>
   <si>
     <t>-ique</t>
@@ -89,264 +358,6 @@
   </si>
   <si>
     <t>fluide</t>
-  </si>
-  <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>-idad</t>
-  </si>
-  <si>
-    <t>-ity</t>
-  </si>
-  <si>
-    <t>possibilidad</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
-    <t>-ción</t>
-  </si>
-  <si>
-    <t>-tion</t>
-  </si>
-  <si>
-    <t>atención</t>
-  </si>
-  <si>
-    <t>attention</t>
-  </si>
-  <si>
-    <t>-sión</t>
-  </si>
-  <si>
-    <t>-sion</t>
-  </si>
-  <si>
-    <t>decisión</t>
-  </si>
-  <si>
-    <t>decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -monía</t>
-  </si>
-  <si>
-    <t>-monie</t>
-  </si>
-  <si>
-    <t>harmonia</t>
-  </si>
-  <si>
-    <t>harmonie</t>
-  </si>
-  <si>
-    <t>-logía</t>
-  </si>
-  <si>
-    <t>-ologie</t>
-  </si>
-  <si>
-    <t>biología</t>
-  </si>
-  <si>
-    <t>biologie</t>
-  </si>
-  <si>
-    <t>-grafía</t>
-  </si>
-  <si>
-    <t>-graphie</t>
-  </si>
-  <si>
-    <t>geografía</t>
-  </si>
-  <si>
-    <t>géographie</t>
-  </si>
-  <si>
-    <t>-metría</t>
-  </si>
-  <si>
-    <t>-métrie</t>
-  </si>
-  <si>
-    <t>geometría</t>
-  </si>
-  <si>
-    <t>géométrie</t>
-  </si>
-  <si>
-    <t>-ario</t>
-  </si>
-  <si>
-    <t>-aire</t>
-  </si>
-  <si>
-    <t>dictionario</t>
-  </si>
-  <si>
-    <t>dictionaire</t>
-  </si>
-  <si>
-    <t>-oria</t>
-  </si>
-  <si>
-    <t>-oire</t>
-  </si>
-  <si>
-    <t>historia</t>
-  </si>
-  <si>
-    <t>histoire</t>
-  </si>
-  <si>
-    <t>-ista</t>
-  </si>
-  <si>
-    <t>-iste</t>
-  </si>
-  <si>
-    <t>artista</t>
-  </si>
-  <si>
-    <t>artiste</t>
-  </si>
-  <si>
-    <t>-ismo</t>
-  </si>
-  <si>
-    <t>-isme</t>
-  </si>
-  <si>
-    <t>capitalismo</t>
-  </si>
-  <si>
-    <t>capitalisme</t>
-  </si>
-  <si>
-    <t>-junción</t>
-  </si>
-  <si>
-    <t>-jonction</t>
-  </si>
-  <si>
-    <t>conjunción</t>
-  </si>
-  <si>
-    <t>conjonction</t>
-  </si>
-  <si>
-    <t>verb</t>
-  </si>
-  <si>
-    <t>-ificar</t>
-  </si>
-  <si>
-    <t>-ifier</t>
-  </si>
-  <si>
-    <t>simplificar</t>
-  </si>
-  <si>
-    <t>simplifier</t>
-  </si>
-  <si>
-    <t>-izar</t>
-  </si>
-  <si>
-    <t>-iser</t>
-  </si>
-  <si>
-    <t>organizar</t>
-  </si>
-  <si>
-    <t>organiser</t>
-  </si>
-  <si>
-    <t>-yectar</t>
-  </si>
-  <si>
-    <t>-jeter</t>
-  </si>
-  <si>
-    <t>proyectar</t>
-  </si>
-  <si>
-    <t>projeter</t>
-  </si>
-  <si>
-    <t>-ducir</t>
-  </si>
-  <si>
-    <t>-duire</t>
-  </si>
-  <si>
-    <t>introducir</t>
-  </si>
-  <si>
-    <t>introduire</t>
-  </si>
-  <si>
-    <t>-pender</t>
-  </si>
-  <si>
-    <t>-pendre</t>
-  </si>
-  <si>
-    <t>depender</t>
-  </si>
-  <si>
-    <t>dépendre</t>
-  </si>
-  <si>
-    <t>-venir</t>
-  </si>
-  <si>
-    <t>prévenir</t>
-  </si>
-  <si>
-    <t>-ferir</t>
-  </si>
-  <si>
-    <t>-férer</t>
-  </si>
-  <si>
-    <t>conferir</t>
-  </si>
-  <si>
-    <t>conférer</t>
-  </si>
-  <si>
-    <t>-gerir</t>
-  </si>
-  <si>
-    <t>-gérer</t>
-  </si>
-  <si>
-    <t>sugerir</t>
-  </si>
-  <si>
-    <t>suggérer</t>
-  </si>
-  <si>
-    <t>-currir</t>
-  </si>
-  <si>
-    <t>ocurrir</t>
-  </si>
-  <si>
-    <t>-cubrir</t>
-  </si>
-  <si>
-    <t>-couvrir</t>
-  </si>
-  <si>
-    <t>discubrir</t>
-  </si>
-  <si>
-    <t>découvrir</t>
   </si>
 </sst>
 </file>
@@ -1566,448 +1577,475 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="13.7692307692308" customWidth="1"/>
-    <col min="3" max="3" width="9.61538461538461" customWidth="1"/>
-    <col min="4" max="4" width="13.9230769230769" customWidth="1"/>
-    <col min="5" max="5" width="13.2307692307692" customWidth="1"/>
+    <col min="1" max="1" width="13.7692307692308" customWidth="1"/>
+    <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
+    <col min="3" max="3" width="13.9230769230769" customWidth="1"/>
+    <col min="4" max="4" width="13.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/es/es-affix.xlsx
+++ b/es/es-affix.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="218">
   <si>
     <t>Spanish</t>
   </si>
@@ -327,6 +327,9 @@
     <t>conférer</t>
   </si>
   <si>
+    <t>-ir/-er</t>
+  </si>
+  <si>
     <t>-gerir</t>
   </si>
   <si>
@@ -375,6 +378,9 @@
     <t>organiser</t>
   </si>
   <si>
+    <t>-ar/-er</t>
+  </si>
+  <si>
     <t>-legir</t>
   </si>
   <si>
@@ -420,9 +426,6 @@
     <t>prononcer</t>
   </si>
   <si>
-    <t>-der</t>
-  </si>
-  <si>
     <t>-pender</t>
   </si>
   <si>
@@ -435,6 +438,9 @@
     <t>dépendre</t>
   </si>
   <si>
+    <t>-ender/-endre</t>
+  </si>
+  <si>
     <t>-prender</t>
   </si>
   <si>
@@ -459,6 +465,9 @@
     <t>compliquer</t>
   </si>
   <si>
+    <t>-ar/-quer</t>
+  </si>
+  <si>
     <t>-rigir</t>
   </si>
   <si>
@@ -495,6 +504,18 @@
     <t>persécuter</t>
   </si>
   <si>
+    <t>-sistir</t>
+  </si>
+  <si>
+    <t>-sister</t>
+  </si>
+  <si>
+    <t>consistir</t>
+  </si>
+  <si>
+    <t>consister</t>
+  </si>
+  <si>
     <t>-stituir</t>
   </si>
   <si>
@@ -507,21 +528,21 @@
     <t>constituer</t>
   </si>
   <si>
+    <t>-struir</t>
+  </si>
+  <si>
+    <t>-struire</t>
+  </si>
+  <si>
+    <t>construir</t>
+  </si>
+  <si>
+    <t>construire</t>
+  </si>
+  <si>
     <t>-uir</t>
   </si>
   <si>
-    <t>-struir</t>
-  </si>
-  <si>
-    <t>-struire</t>
-  </si>
-  <si>
-    <t>construir</t>
-  </si>
-  <si>
-    <t>construire</t>
-  </si>
-  <si>
     <t>-tener</t>
   </si>
   <si>
@@ -561,13 +582,13 @@
     <t>-traer</t>
   </si>
   <si>
-    <t>-tract</t>
+    <t>-traire</t>
   </si>
   <si>
     <t>distraer</t>
   </si>
   <si>
-    <t>distract</t>
+    <t>distraire</t>
   </si>
   <si>
     <t>-tribuir</t>
@@ -610,6 +631,9 @@
   </si>
   <si>
     <t>-el</t>
+  </si>
+  <si>
+    <t>natural</t>
   </si>
   <si>
     <t>naturel</t>
@@ -1276,7 +1300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,17 +1310,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1858,8 +1876,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.23076923076923" style="7"/>
-    <col min="2" max="2" width="12.3846153846154" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.23076923076923" style="5"/>
+    <col min="2" max="2" width="12.3846153846154" style="5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
@@ -1880,8 +1898,8 @@
       </c>
     </row>
     <row r="2" spans="3:4">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1895,7 +1913,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1944,7 +1962,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1963,16 +1981,16 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2089,16 +2107,16 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2131,7 +2149,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2156,271 +2174,281 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD32"/>
+  <dimension ref="A1:XFD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.38461538461539" customWidth="1"/>
-    <col min="2" max="3" width="10.3076923076923"/>
-    <col min="4" max="4" width="11.9230769230769" customWidth="1"/>
-    <col min="5" max="5" width="11.5384615384615" customWidth="1"/>
+    <col min="1" max="2" width="10.3076923076923"/>
+    <col min="3" max="3" width="11.9230769230769" customWidth="1"/>
+    <col min="4" max="4" width="11.5384615384615" customWidth="1"/>
+    <col min="5" max="5" width="14.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>119</v>
+      <c r="A15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>128</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -18803,247 +18831,276 @@
       <c r="XFD17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>129</v>
+      <c r="A18" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>129</v>
+      <c r="A19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
+      <c r="A21" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>156</v>
+      <c r="A24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
+      <c r="A28" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
+      <c r="A29" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="A30" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>185</v>
+      <c r="A31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>188</v>
+      <c r="A32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B15:E19">
-    <sortCondition ref="E19"/>
+  <sortState ref="A15:D19">
+    <sortCondition ref="D19"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -19056,12 +19113,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.7692307692308" customWidth="1"/>
+    <col min="1" max="1" width="8.92307692307692" customWidth="1"/>
     <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
     <col min="3" max="3" width="13.9230769230769" customWidth="1"/>
     <col min="4" max="4" width="13.2307692307692" customWidth="1"/>
@@ -19083,79 +19140,79 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>209</v>
+      <c r="A6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/es/es-affix.xlsx
+++ b/es/es-affix.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="255">
   <si>
     <t>Spanish</t>
   </si>
@@ -390,6 +390,9 @@
     <t>conclure</t>
   </si>
   <si>
+    <t>-uir/-ure</t>
+  </si>
+  <si>
     <t>-cubrir</t>
   </si>
   <si>
@@ -429,9 +432,6 @@
     <t>indiquer</t>
   </si>
   <si>
-    <t>-car/-quer</t>
-  </si>
-  <si>
     <t>-ducir</t>
   </si>
   <si>
@@ -444,6 +444,9 @@
     <t>introduire</t>
   </si>
   <si>
+    <t>-ir/-ire</t>
+  </si>
+  <si>
     <t>-ferir</t>
   </si>
   <si>
@@ -456,6 +459,30 @@
     <t>conférer</t>
   </si>
   <si>
+    <t>-fundir</t>
+  </si>
+  <si>
+    <t>-fuser</t>
+  </si>
+  <si>
+    <t>transfundir</t>
+  </si>
+  <si>
+    <t>transfuser</t>
+  </si>
+  <si>
+    <t>-fondre</t>
+  </si>
+  <si>
+    <t>confundir</t>
+  </si>
+  <si>
+    <t>confudre</t>
+  </si>
+  <si>
+    <t>-ir/-re</t>
+  </si>
+  <si>
     <t>-gerir</t>
   </si>
   <si>
@@ -537,7 +564,7 @@
     <t>dépendre</t>
   </si>
   <si>
-    <t>-ender/-endre</t>
+    <t>-nder/-ndre</t>
   </si>
   <si>
     <t>-prender</t>
@@ -636,9 +663,6 @@
     <t>construire</t>
   </si>
   <si>
-    <t>-uir/-uire</t>
-  </si>
-  <si>
     <t>-sumir</t>
   </si>
   <si>
@@ -739,9 +763,6 @@
   </si>
   <si>
     <t>provoquer</t>
-  </si>
-  <si>
-    <t>-ar/-quer</t>
   </si>
   <si>
     <t>-yectar</t>
@@ -1393,7 +1414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,6 +1432,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -18876,10 +18903,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -18980,55 +19007,57 @@
       <c r="D6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19044,46 +19073,46 @@
       <c r="D10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
@@ -19094,101 +19123,105 @@
         <v>147</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="D14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>152</v>
+      <c r="A15" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>113</v>
+        <v>164</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>171</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19205,105 +19238,109 @@
         <v>175</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>188</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19320,7 +19357,7 @@
         <v>204</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19337,41 +19374,41 @@
         <v>208</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19388,7 +19425,7 @@
         <v>221</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19405,64 +19442,100 @@
         <v>225</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="B36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -19499,30 +19572,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/es/es-affix.xlsx
+++ b/es/es-affix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="4"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="350">
   <si>
     <t>Spanish</t>
   </si>
@@ -542,6 +542,30 @@
     <t>conférer</t>
   </si>
   <si>
+    <t>-flejar</t>
+  </si>
+  <si>
+    <t>-fléchir</t>
+  </si>
+  <si>
+    <t>reflejar</t>
+  </si>
+  <si>
+    <t>réfléchir</t>
+  </si>
+  <si>
+    <t>-fluir</t>
+  </si>
+  <si>
+    <t>-fluer</t>
+  </si>
+  <si>
+    <t>influir</t>
+  </si>
+  <si>
+    <t>influer</t>
+  </si>
+  <si>
     <t>-finar</t>
   </si>
   <si>
@@ -839,6 +863,18 @@
     <t>inscrire</t>
   </si>
   <si>
+    <t>-servar</t>
+  </si>
+  <si>
+    <t>-server</t>
+  </si>
+  <si>
+    <t>reservar</t>
+  </si>
+  <si>
+    <t>réserver</t>
+  </si>
+  <si>
     <t>-seguir</t>
   </si>
   <si>
@@ -1011,6 +1047,18 @@
   </si>
   <si>
     <t>attribuer</t>
+  </si>
+  <si>
+    <t>-visar</t>
+  </si>
+  <si>
+    <t>-viser</t>
+  </si>
+  <si>
+    <t>revisar</t>
+  </si>
+  <si>
+    <t>réviser</t>
   </si>
   <si>
     <t>-vocar</t>
@@ -1650,7 +1698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,6 +1712,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -18904,7 +18955,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -19245,10 +19296,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="199" zoomScaleNormal="199" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -19289,7 +19340,7 @@
       <c r="D2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -19304,7 +19355,7 @@
       <c r="D3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -19317,7 +19368,7 @@
       <c r="D4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -19332,7 +19383,7 @@
       <c r="D5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19349,7 +19400,7 @@
       <c r="D6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19366,7 +19417,7 @@
       <c r="D7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -19383,7 +19434,7 @@
       <c r="D8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -19398,7 +19449,7 @@
       <c r="D9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -19415,7 +19466,7 @@
       <c r="D10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19432,7 +19483,7 @@
       <c r="D11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -19449,7 +19500,7 @@
       <c r="D12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -19466,9 +19517,7 @@
       <c r="D13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -19483,8 +19532,8 @@
       <c r="D14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>137</v>
+      <c r="E14" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19500,7 +19549,7 @@
       <c r="D15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19517,23 +19566,25 @@
       <c r="D16" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>155</v>
+      <c r="E16" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="5" t="s">
         <v>188</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19549,25 +19600,23 @@
       <c r="D18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19583,7 +19632,7 @@
       <c r="D20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -19600,121 +19649,123 @@
       <c r="D21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>155</v>
+      <c r="E21" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>212</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="D24" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>137</v>
+        <v>220</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B26" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19727,12 +19778,10 @@
       <c r="C29" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
@@ -19744,10 +19793,10 @@
       <c r="C30" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19761,11 +19810,11 @@
       <c r="C31" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>224</v>
+      <c r="E31" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19778,59 +19827,59 @@
       <c r="C32" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>155</v>
+      <c r="E32" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>252</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>137</v>
+        <v>256</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
@@ -19845,7 +19894,7 @@
       <c r="D36" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19862,8 +19911,8 @@
       <c r="D37" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>164</v>
+      <c r="E37" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19879,8 +19928,8 @@
       <c r="D38" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>155</v>
+      <c r="E38" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19896,24 +19945,24 @@
       <c r="D39" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>155</v>
+      <c r="E39" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>276</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19930,8 +19979,8 @@
       <c r="D41" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>137</v>
+      <c r="E41" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -19947,8 +19996,8 @@
       <c r="D42" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>137</v>
+      <c r="E42" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -19964,8 +20013,8 @@
       <c r="D43" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>155</v>
+      <c r="E43" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -19981,8 +20030,8 @@
       <c r="D44" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>164</v>
+      <c r="E44" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -19998,8 +20047,8 @@
       <c r="D45" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>155</v>
+      <c r="E45" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -20015,59 +20064,59 @@
       <c r="D46" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>304</v>
+      <c r="E46" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>224</v>
+      <c r="E47" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>137</v>
+      <c r="E48" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20083,68 +20132,136 @@
       <c r="D50" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>321</v>
+      <c r="E50" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>155</v>
+      <c r="E51" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>137</v>
+      <c r="E52" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E53" s="5" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/es/es-affix.xlsx
+++ b/es/es-affix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="6"/>
+    <workbookView windowWidth="29140" windowHeight="13940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="362">
   <si>
     <t>Spanish</t>
   </si>
@@ -242,6 +242,66 @@
     <t>fluide</t>
   </si>
   <si>
+    <t xml:space="preserve"> -monía</t>
+  </si>
+  <si>
+    <t>-monie</t>
+  </si>
+  <si>
+    <t>harmonía</t>
+  </si>
+  <si>
+    <t>harmonie</t>
+  </si>
+  <si>
+    <t>-grafía</t>
+  </si>
+  <si>
+    <t>-graphie</t>
+  </si>
+  <si>
+    <t>geografía</t>
+  </si>
+  <si>
+    <t>géographie</t>
+  </si>
+  <si>
+    <t>-metría</t>
+  </si>
+  <si>
+    <t>-métrie</t>
+  </si>
+  <si>
+    <t>geometría</t>
+  </si>
+  <si>
+    <t>géométrie</t>
+  </si>
+  <si>
+    <t>-misión</t>
+  </si>
+  <si>
+    <t>-mission</t>
+  </si>
+  <si>
+    <t>emisión</t>
+  </si>
+  <si>
+    <t>émission</t>
+  </si>
+  <si>
+    <t>-junción</t>
+  </si>
+  <si>
+    <t>-jonction</t>
+  </si>
+  <si>
+    <t>conjunción</t>
+  </si>
+  <si>
+    <t>conjonction</t>
+  </si>
+  <si>
     <t>-ceso</t>
   </si>
   <si>
@@ -278,16 +338,16 @@
     <t>exprès</t>
   </si>
   <si>
-    <t xml:space="preserve"> -monía</t>
-  </si>
-  <si>
-    <t>-monie</t>
-  </si>
-  <si>
-    <t>harmonía</t>
-  </si>
-  <si>
-    <t>harmonie</t>
+    <t>-curso</t>
+  </si>
+  <si>
+    <t>-cours</t>
+  </si>
+  <si>
+    <t>discurso</t>
+  </si>
+  <si>
+    <t>discours</t>
   </si>
   <si>
     <t>-ducto</t>
@@ -314,54 +374,6 @@
     <t>préfix</t>
   </si>
   <si>
-    <t>-grafía</t>
-  </si>
-  <si>
-    <t>-graphie</t>
-  </si>
-  <si>
-    <t>geografía</t>
-  </si>
-  <si>
-    <t>géographie</t>
-  </si>
-  <si>
-    <t>-junción</t>
-  </si>
-  <si>
-    <t>-jonction</t>
-  </si>
-  <si>
-    <t>conjunción</t>
-  </si>
-  <si>
-    <t>conjonction</t>
-  </si>
-  <si>
-    <t>-metría</t>
-  </si>
-  <si>
-    <t>-métrie</t>
-  </si>
-  <si>
-    <t>geometría</t>
-  </si>
-  <si>
-    <t>géométrie</t>
-  </si>
-  <si>
-    <t>-misión</t>
-  </si>
-  <si>
-    <t>-mission</t>
-  </si>
-  <si>
-    <t>emisión</t>
-  </si>
-  <si>
-    <t>émission</t>
-  </si>
-  <si>
     <t>-puesto</t>
   </si>
   <si>
@@ -380,12 +392,12 @@
     <t>-spect</t>
   </si>
   <si>
+    <t>aspecto</t>
+  </si>
+  <si>
     <t>aspect</t>
   </si>
   <si>
-    <t>aspecto</t>
-  </si>
-  <si>
     <t>-tracto</t>
   </si>
   <si>
@@ -476,6 +488,18 @@
     <t>-uir/-ure</t>
   </si>
   <si>
+    <t>-currir</t>
+  </si>
+  <si>
+    <t>-courir</t>
+  </si>
+  <si>
+    <t>concurrir</t>
+  </si>
+  <si>
+    <t>concourir</t>
+  </si>
+  <si>
     <t>-cubrir</t>
   </si>
   <si>
@@ -717,6 +741,18 @@
   </si>
   <si>
     <t>prononcer</t>
+  </si>
+  <si>
+    <t>-parar</t>
+  </si>
+  <si>
+    <t>-parer</t>
+  </si>
+  <si>
+    <t>comparar</t>
+  </si>
+  <si>
+    <t>comparer</t>
   </si>
   <si>
     <t>-pender</t>
@@ -19046,10 +19082,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="231" zoomScaleNormal="231" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -19084,12 +19120,12 @@
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -19098,7 +19134,7 @@
       <c r="C3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -19109,24 +19145,24 @@
       <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -19145,21 +19181,21 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -19168,35 +19204,35 @@
       <c r="C8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -19216,72 +19252,58 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -19296,10 +19318,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -19324,944 +19346,975 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>154</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>155</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>155</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>216</v>
+      <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>196</v>
+        <v>224</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" s="7"/>
+      <c r="A26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>137</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="B29" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>137</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E35" s="6"/>
+        <v>264</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>155</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
-        <v>276</v>
+      <c r="A40" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>316</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>137</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>347</v>
+      <c r="A57" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/es/es-affix.xlsx
+++ b/es/es-affix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="374">
   <si>
     <t>Spanish</t>
   </si>
@@ -578,6 +578,18 @@
     <t>réfléchir</t>
   </si>
   <si>
+    <t>-fligir</t>
+  </si>
+  <si>
+    <t>-fliger</t>
+  </si>
+  <si>
+    <t>afligir</t>
+  </si>
+  <si>
+    <t>affliger</t>
+  </si>
+  <si>
     <t>-fluir</t>
   </si>
   <si>
@@ -770,6 +782,18 @@
     <t>-nder/-ndre</t>
   </si>
   <si>
+    <t>-pensar</t>
+  </si>
+  <si>
+    <t>-penser</t>
+  </si>
+  <si>
+    <t>compensar</t>
+  </si>
+  <si>
+    <t>compenser</t>
+  </si>
+  <si>
     <t>-poner</t>
   </si>
   <si>
@@ -861,6 +885,18 @@
   </si>
   <si>
     <t>impulser</t>
+  </si>
+  <si>
+    <t>-putar</t>
+  </si>
+  <si>
+    <t>-puter</t>
+  </si>
+  <si>
+    <t>disputar</t>
+  </si>
+  <si>
+    <t>disputer</t>
   </si>
   <si>
     <t>-rigir</t>
@@ -19318,10 +19354,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -19586,7 +19622,7 @@
         <v>188</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19637,39 +19673,39 @@
         <v>200</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19686,7 +19722,7 @@
         <v>212</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19703,7 +19739,7 @@
         <v>216</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19724,16 +19760,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -19744,7 +19780,7 @@
       <c r="A26" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -19753,48 +19789,48 @@
       <c r="D26" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>204</v>
+      <c r="E26" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="D27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -19811,36 +19847,38 @@
       <c r="B30" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>243</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>250</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -19863,12 +19901,10 @@
       <c r="C33" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
@@ -19880,7 +19916,7 @@
       <c r="C34" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -19897,11 +19933,11 @@
       <c r="C35" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19914,59 +19950,59 @@
       <c r="C36" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>268</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>272</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
@@ -19999,7 +20035,7 @@
         <v>287</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -20016,7 +20052,7 @@
         <v>291</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -20033,7 +20069,7 @@
         <v>295</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20050,7 +20086,7 @@
         <v>299</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -20084,7 +20120,7 @@
         <v>307</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -20101,7 +20137,7 @@
         <v>311</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20118,7 +20154,7 @@
         <v>315</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20135,7 +20171,7 @@
         <v>319</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20152,7 +20188,7 @@
         <v>323</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20169,58 +20205,58 @@
         <v>327</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E52" s="6" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E53" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20237,84 +20273,135 @@
         <v>344</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>345</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="E56" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="E57" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="4" t="s">
         <v>361</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E27:E28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
